--- a/test_results/suggest_5_books_on_christmas.xlsx
+++ b/test_results/suggest_5_books_on_christmas.xlsx
@@ -430,16 +430,16 @@
         <v>Books on christmas</v>
       </c>
       <c r="B2" t="str">
-        <v>Christmas 101</v>
+        <v>Finding Christmas</v>
       </c>
       <c r="C2" t="str">
-        <v>"CHRISTMAS 101" honors the culinary legacy of Dick and Eleanor Rodgers, transforming their traditions into a guide for joyful, stress-free festive entertaining that blends historical practices with contemporary artistry | The guide transitions from edible gifts and party planning to the art of crafting festive beverages, exploring their historical and cultural origins from ancient pagan celebrations to their integration into Christian Christmas traditions | Practical advice extends to selecting sparkling wine and detailed recipes for classic holiday beverages like a small-batch Tom and Jerry, a modern cider wassail, and a mulled wine with honey and orange, with tips for optimal flavor and historical context for each drink | The narrative concludes by curating a personal selection of classic Christmas movies, including A Charlie Brown Christmas and It's a Wonderful Life, along with The Nutcracker Ballet, as essential elements for setting a nostalgic holiday mood | The book features 100 of his never-fail recipes, from holiday classics such as egg nog, glazed ham, and gingerbread cookies to contemporary ideas such as Shrimp Bisque with Confetti Vegetables, Chicken Cassoulet, and Shortcakes with Pears in Brandied Cream Sauce</v>
+        <v>The story revolves around Emmie and Sam's individual journeys of self-discovery, infused with the spirit of Christmas | The book includes Christmas traditions, decorations, lights, snow angels, gingerbread men, and mistletoe | The book is about a Christmas-themed scavenger hunt to help someone find their Christmas spirit</v>
       </c>
       <c r="D2" t="str">
-        <v>95%</v>
+        <v>100%</v>
       </c>
       <c r="E2" t="str">
-        <v>The relevance score is 95% because while the book extensively covers Christmas and its traditions, it is primarily a culinary guide focused on recipes and entertaining, which might slightly broaden its focus from purely Christmas stories or themes.</v>
+        <v>No gap mentioned</v>
       </c>
     </row>
     <row r="3">
@@ -447,16 +447,16 @@
         <v>Books on christmas</v>
       </c>
       <c r="B3" t="str">
-        <v>Christmas Miracles</v>
+        <v>How the Dukes Stole Christmas</v>
       </c>
       <c r="C3" t="str">
-        <v>"Christmas Miracles" explores the profound impact of resilience and transformative human connection, where unexpected kindness consistently turns despair into joy, affirming a belief in destiny and enduring support | The book posits that during the Christmas season, even the most cynical hearts become open to wondrous occurrences, from unexpected reunions to dramatic recoveries, fostering a unique receptiveness to both grand and subtle miracles that defy natural explanation | The book shares true accounts of Christmas miracles, including a deaf boy's generosity being miraculously rewarded and newlyweds receiving a surprising lesson in timeless love at the local Christmas pageant | It includes a story about a group of young people who decided to spread some Christmas cheer to children in a community hospital, illustrating the spirit of giving and compassion during the holiday season</v>
+        <v>The book is a Christmas romance anthology | The stories are set during Christmastime | The anthology includes tales like “Meet Me in Mayfair,” “The Duke of Christmas Present,” “Heiress Alone,” and “Christmas in Central Park”</v>
       </c>
       <c r="D3" t="str">
-        <v>94%</v>
+        <v>100%</v>
       </c>
       <c r="E3" t="str">
-        <v>The relevance score is 94% because while the book focuses on Christmas miracles and heartwarming stories, it is primarily a collection of anecdotes rather than a cohesive narrative or exploration of Christmas traditions and history.</v>
+        <v>No gap mentioned</v>
       </c>
     </row>
     <row r="4">
@@ -464,16 +464,16 @@
         <v>Books on christmas</v>
       </c>
       <c r="B4" t="str">
-        <v>The First Christmas</v>
+        <v>Christmas 101</v>
       </c>
       <c r="C4" t="str">
-        <v>The book, The First Christmas, treats what may be the best-known stories in the world, as the stories of Jesus’s birth are the foundation of the world’s most widely observed holiday | The book helps us see the real Christmas story buried in the familiar Bible accounts, basing their interpretations on the two nativity narratives in the Gospels of Matthew and Luke | The book comprehensively explores this Christmas story, first establishing the foundational context of its narratives and parables, then delving into Jesus's profound implications as a beacon of light, the fulfillment of ancient prophecies, and a source of universal joy | The book treats the stories of the first Christmas, the nativity stories of Jesus, which are richer and more challenging than is commonly imagined</v>
+        <v>The book is a guide to make holiday planning simple, fun, and festive, featuring Christmas holiday classics | The book features menu ideas, timetables, hints, and shortcuts for Christmas | The book helps cooks entertain during the hectic Christmas season</v>
       </c>
       <c r="D4" t="str">
-        <v>93%</v>
+        <v>100%</v>
       </c>
       <c r="E4" t="str">
-        <v>The relevance score is 93% because while the book extensively covers the story of the first Christmas and the birth of Jesus, it primarily focuses on biblical analysis and theological interpretations, which might slightly broaden its focus from general Christmas stories or traditions.</v>
+        <v>No gap mentioned</v>
       </c>
     </row>
     <row r="5">
@@ -481,16 +481,16 @@
         <v>Books on christmas</v>
       </c>
       <c r="B5" t="str">
-        <v>The Official Guide to Christmas in the South</v>
+        <v>The First Christmas</v>
       </c>
       <c r="C5" t="str">
-        <v>The book provides a charming, humorous guide, anyone can learn how to deck the halls, Southern style | The book maintains a continuous narrative of presentation, intimately understood by author David C. Barnette and his family, extends beyond the visual spectacle to the equally significant tradition of the casserole, a cornerstone of Southern hospitality imbued with intricate social codes where the serving vessel itself conveys distinct messages | The book is the gift that will keep on regifting season after season | The book involves bargain hunting and strict rules for elaborate mantel and outdoor displays featuring mechanical grapevine animals, culminating in meticulously staged Christmas morning reveals and extravagant parties</v>
+        <v>The book treats the stories of Jesus’s birth, which are the foundation of the world’s most widely observed holiday, Christmas | The book is about the stories of the first Christmas, the nativity stories of Jesus | The book helps us see the real Christmas story buried in the familiar Bible accounts</v>
       </c>
       <c r="D5" t="str">
-        <v>91%</v>
+        <v>100%</v>
       </c>
       <c r="E5" t="str">
-        <v>The relevance score is 91% because while the book extensively covers Christmas celebrations and traditions in the South, it is primarily a humorous guide focused on Southern etiquette and customs, which might slightly broaden its focus from general Christmas stories or themes.</v>
+        <v>No gap mentioned</v>
       </c>
     </row>
     <row r="6">
@@ -498,16 +498,16 @@
         <v>Books on christmas</v>
       </c>
       <c r="B6" t="str">
-        <v>How to Talk to Santa</v>
+        <v>The Official Guide to Christmas in the South</v>
       </c>
       <c r="C6" t="str">
-        <v>The book inspires children to maintain good behavior year-round, fostering accountability through a "niceness plan" of charitable acts | As Thanksgiving passes, "Operation Christmas" intensifies, testing the season's true spirit of collective positive change amidst a festive frenzy of shopping and decorating | The book reinforces that giving brings greater fulfillment than receiving, emphasizing thoughtful consideration over mere demanding, upholding the true essence of the holiday | The holiday season bursts forth with ubiquitous "Jingle Bells," elaborate yard displays, and a surge of toy commercials, drawing children into making decorations and meticulously preparing their wish lists like school assignments | The book provides specific instructions are paramount: hang stockings, prepare a thank-you letter and treats for Santa, and leave carrots for his reindeer</v>
+        <v>The book is about how to celebrate Christmas in the South | The book reveals the finer and sometimes unspoken details of Dixie etiquette during the Christmas season | The book is a charming, humorous guide to learn how to deck the halls, Southern style, during Christmas</v>
       </c>
       <c r="D6" t="str">
-        <v>90%</v>
+        <v>100%</v>
       </c>
       <c r="E6" t="str">
-        <v>The relevance score is 90% because while the book extensively covers Christmas and Santa it is primarily a guide for children on how to interact with Santa and prepare for Christmas, which might slightly broaden its focus from general Christmas stories or themes.</v>
+        <v>No gap mentioned</v>
       </c>
     </row>
   </sheetData>
